--- a/biology/Zoologie/Bécasseau_spatule/Bécasseau_spatule.xlsx
+++ b/biology/Zoologie/Bécasseau_spatule/Bécasseau_spatule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_spatule</t>
+          <t>Bécasseau_spatule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris pygmaea
 Le Bécasseau spatule (Calidris pygmaea - anciennement Eurynorhynchus pygmeus) est une petite espèce de limicoles asiatiques. Elle fait partie de la liste des 100 espèces les plus menacées au monde établie par l'UICN en 2012.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_spatule</t>
+          <t>Bécasseau_spatule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est caractérisé par son bec spatulé. Il s'agit d'un bécasseau de petite taille puisqu'il ne mesure que de 14 à 16 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est caractérisé par son bec spatulé. Il s'agit d'un bécasseau de petite taille puisqu'il ne mesure que de 14 à 16 cm.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_spatule</t>
+          <t>Bécasseau_spatule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce niche dans la toundra sibérienne et hiverne au Bangladesh et en Birmanie, réalisant une migration de 8 000 kilomètres[2], et aussi en Inde, en Thaïlande, au Vietnam et aux Philippines.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce niche dans la toundra sibérienne et hiverne au Bangladesh et en Birmanie, réalisant une migration de 8 000 kilomètres, et aussi en Inde, en Thaïlande, au Vietnam et aux Philippines.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_spatule</t>
+          <t>Bécasseau_spatule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau niche près des côtes mais aussi près des lacs et des rivières. Il hiverne sur les vasières et les lagunes littorales.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_spatule</t>
+          <t>Bécasseau_spatule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit sur la vase humide ou en eau peu profonde qu'il balaie latéralement avec son bec spatulé. Il s'associe fréquemment au Bécasseau à cou roux en migration et en hivernage.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_spatule</t>
+          <t>Bécasseau_spatule</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,11 +656,13 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est très menacée et donc considérée comme « en danger critique d'extinction » par l'UICN. Ce statut est justifié par un déclin très inquiétant, l'espèce ayant perdu 88 % de ses effectifs en huit ans (de 2002 à 2010). Il resterait actuellement 120-200 couples de cet oiseau[3] poussant l'UICN à la classer sur la liste des 100 espèces les plus menacées au monde en 2012.
-La cause principale de ce déclin est la destruction et la pollution de son habitat sur ses sites d'escale et d'hivernage en Asie de l'Est[3].
-Un programme de conservation a récemment été mis en œuvre. Des oiseaux sont également élevés en captivité afin de tenter de sauver l'espèce de l'extinction[4]. Ces efforts semblent porter leurs fruits : en 2013 et 2014, pour la première fois, les effectifs n'ont pas diminué[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est très menacée et donc considérée comme « en danger critique d'extinction » par l'UICN. Ce statut est justifié par un déclin très inquiétant, l'espèce ayant perdu 88 % de ses effectifs en huit ans (de 2002 à 2010). Il resterait actuellement 120-200 couples de cet oiseau poussant l'UICN à la classer sur la liste des 100 espèces les plus menacées au monde en 2012.
+La cause principale de ce déclin est la destruction et la pollution de son habitat sur ses sites d'escale et d'hivernage en Asie de l'Est.
+Un programme de conservation a récemment été mis en œuvre. Des oiseaux sont également élevés en captivité afin de tenter de sauver l'espèce de l'extinction. Ces efforts semblent porter leurs fruits : en 2013 et 2014, pour la première fois, les effectifs n'ont pas diminué.
 </t>
         </is>
       </c>
